--- a/tabs/ZDATA__tes_at_keri_team.xlsx
+++ b/tabs/ZDATA__tes_at_keri_team.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\homepage\tabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD-2025/6_homepage_byungkiryu/byungkiryu/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B70F5-B386-4C04-B2FC-2EC35AF770D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CEC00855-B09D-4600-AEF5-68F96D01267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712E9024-5413-4DCD-AB73-667D0174CCE4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
+    <sheet name="table content" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Dr.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Jihui SON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PbTe based material synthesis and module fabrication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BiTe based material synthesis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,14 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>current</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alumni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jae Ki Lee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>visitors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Johannes de Boor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,7 +208,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>from German Aerospace Center, 2024-Nov-24 to Dec-10</t>
+    <t>Members</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alumni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visitors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where_now</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KERI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-principles calcualtions for thermoelectric materials and defects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermoelectric materials and experiments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermoelectric materials synthesis and module fabrication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PbTe based material synthesis, module fabrication and evaluation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>German Aerospace Center (DLR), Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-Nov-24 to Dec-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Visitors</t>
+  </si>
+  <si>
+    <t>Dr. Prof.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine learning thermoelectric energy conversion and devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAIST, Korea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wabi Diribia Demeke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ji Hui SON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is invited for KERI-DLR collaboration. He is from German Aerospace Center (DLR), Germany. He stayed from 2024-Dev-24 to Dec-10.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,16 +316,37 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,20 +369,448 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -310,6 +821,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53D4A22B-0BA2-4AB5-8D2E-80AE5EE4F790}" name="표1" displayName="표1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H15" xr:uid="{53D4A22B-0BA2-4AB5-8D2E-80AE5EE4F790}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8D879272-A811-4F7D-9022-AB73916C7FE9}" name="id" dataDxfId="7">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7CCDFE43-1245-4996-8DA9-2F5DE9B0AC98}" name="status" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9361000C-FAB4-415A-814D-23D385C87F72}" name="name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E94DFB8F-1338-45EC-91EC-BA03711B7D05}" name="title" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0F736602-7595-4153-A753-2B9FA86EBF53}" name="name_korean" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{03FCD482-73DC-40A6-9FD4-492841C3E46C}" name="brief" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C442BA5C-F01D-4D5B-90C7-A1BC8F74A6F2}" name="where_now" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{80A35B63-FE37-4A40-853B-D1DB6F3E9185}" name="period" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,302 +1098,441 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="35.9375" customWidth="1"/>
+    <col min="7" max="7" width="24.5625" customWidth="1"/>
+    <col min="8" max="8" width="21.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="3">
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="3">
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+      <c r="A3" s="6">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="3">
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+      <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="3">
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="3">
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="3">
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="3">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="3">
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="3">
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="3">
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="3">
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="3">
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="3">
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="39.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
+      <c r="C14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A15" s="11">
+        <f>A14+1</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AED21B0-A02E-4A48-AAB7-2C16D2FB5822}">
+          <x14:formula1>
+            <xm:f>'table content'!$B$6:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366F54-C5CF-48B0-832A-C0F9E1222CE8}">
+  <dimension ref="B5:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tabs/ZDATA__tes_at_keri_team.xlsx
+++ b/tabs/ZDATA__tes_at_keri_team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD-2025/6_homepage_byungkiryu/byungkiryu/tabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CEC00855-B09D-4600-AEF5-68F96D01267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712E9024-5413-4DCD-AB73-667D0174CCE4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{CEC00855-B09D-4600-AEF5-68F96D01267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B3ACF2-3324-42C3-8ACB-9DCF560A97E7}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PDE, heat equation, machine learning thermoelectric data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>physicist, thermoelectric materials and devices, efficiency theory, new phenomena</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>He is invited for KERI-DLR collaboration. He is from German Aerospace Center (DLR), Germany. He stayed from 2024-Dev-24 to Dec-10.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mathematcial. PDE, heat equation, machine learning thermoelectric data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,6 +821,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,24 +1105,24 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="35.9375" customWidth="1"/>
-    <col min="7" max="7" width="24.5625" customWidth="1"/>
-    <col min="8" max="8" width="21.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.9140625" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1133,18 +1137,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
@@ -1159,42 +1163,42 @@
         <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
@@ -1206,20 +1210,20 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
@@ -1231,23 +1235,23 @@
         <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1256,20 +1260,20 @@
         <v>20</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>12</v>
@@ -1281,20 +1285,20 @@
         <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -1306,20 +1310,20 @@
         <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
@@ -1328,23 +1332,23 @@
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>14</v>
@@ -1353,135 +1357,135 @@
         <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="39.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="F14" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1513,26 +1517,26 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
